--- a/Datos E.xlsx
+++ b/Datos E.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>1.80</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Ecuatoriana</t>
+  </si>
+  <si>
+    <t>Soltero</t>
   </si>
 </sst>
 </file>
@@ -404,15 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H3"/>
+  <dimension ref="C2:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,8 +447,14 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -450,6 +472,12 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
